--- a/results/tableA1_panel_police_report_primary.xlsx
+++ b/results/tableA1_panel_police_report_primary.xlsx
@@ -43,43 +43,43 @@
     <t>['hour']</t>
   </si>
   <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>(0.07)</t>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
   </si>
   <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
-    <t>(0.11)</t>
+    <t>(0.35)</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
   </si>
   <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.37)</t>
-  </si>
-  <si>
-    <t>(0.22)</t>
+    <t>(0.28)</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>(0.08)</t>
+    <t>(0.41)</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.16)</t>
-  </si>
-  <si>
-    <t>(0.03)</t>
+    <t>(0.4)</t>
   </si>
 </sst>
 </file>
@@ -477,13 +477,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -523,13 +523,13 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -566,16 +566,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
